--- a/Лічильники/Таблиця споживання енергоносіїв/Помісячно/Таблиця по місячно з 1 по останнє число(209).xlsx
+++ b/Лічильники/Таблиця споживання енергоносіїв/Помісячно/Таблиця по місячно з 1 по останнє число(209).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
@@ -178,10 +178,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -193,6 +193,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -241,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,18 +517,18 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
@@ -570,20 +573,20 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>934</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>635</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <f>H10-I10</f>
         <v>299</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>1370</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <f>K10-I10</f>
         <v>735</v>
       </c>
